--- a/backtesting/excelStats/subperiod_stats.xlsx
+++ b/backtesting/excelStats/subperiod_stats.xlsx
@@ -10986,10 +10986,10 @@
         <v>0.1257015554768829</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2003837156672507</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="F183" t="n">
-        <v>0.2003837156672507</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="G183" t="n">
         <v>0.05421560675249906</v>
@@ -11001,10 +11001,10 @@
         <v>0.1257015554768818</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2003837156672493</v>
+        <v>0.1939362841534937</v>
       </c>
       <c r="K183" t="n">
-        <v>0.2003837156672493</v>
+        <v>0.1939362841534937</v>
       </c>
       <c r="L183" t="n">
         <v>0.05421560675249947</v>
@@ -11016,10 +11016,10 @@
         <v>0.1257015554768829</v>
       </c>
       <c r="O183" t="n">
-        <v>0.2004984382492258</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="P183" t="n">
-        <v>0.2004984382492258</v>
+        <v>0.1939362841534952</v>
       </c>
       <c r="Q183" t="n">
         <v>144</v>
